--- a/individual_case_outputs/avey/21.xlsx
+++ b/individual_case_outputs/avey/21.xlsx
@@ -639,7 +639,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>acquired thrombophilia</t>
+          <t>deep vein thrombosis</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
